--- a/log_history/Y3_B2526_Physiology_scanner1763640055259_87d45661cbb75d0d3731bef53b8f5bf557b5389a42146218952fe9ea034d4e0b.xlsx
+++ b/log_history/Y3_B2526_Physiology_scanner1763640055259_87d45661cbb75d0d3731bef53b8f5bf557b5389a42146218952fe9ea034d4e0b.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Physiology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
